--- a/source-data/bolivia/bolivia_regions.xlsx
+++ b/source-data/bolivia/bolivia_regions.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/bolivia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F8F721-37CA-E74D-9862-42A2C322EC37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3990F6-75CD-ED4B-9DB7-BAE9A9BD6124}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30680" yWindow="4140" windowWidth="18600" windowHeight="15940" xr2:uid="{DE1725C5-C8CF-ED43-B0A2-22B4081FC9D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="bolivia_regions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bolivia_regions!$A$1:$D$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>region</t>
   </si>
@@ -61,9 +60,6 @@
     <t>Pando</t>
   </si>
   <si>
-    <t>Potosi</t>
-  </si>
-  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
@@ -73,9 +69,6 @@
     <t>Bolivia</t>
   </si>
   <si>
-    <t>BO</t>
-  </si>
-  <si>
     <t>BO-B</t>
   </si>
   <si>
@@ -101,6 +94,9 @@
   </si>
   <si>
     <t>BO-T</t>
+  </si>
+  <si>
+    <t>Potosí</t>
   </si>
 </sst>
 </file>
@@ -452,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B989ECC0-038A-8E40-B823-E9D654D2D47E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,207 +475,128 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2">
-        <v>11633371</v>
+        <v>480308</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>480308</v>
+        <v>637013</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>637013</v>
+        <v>2028639</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>2028639</v>
+        <v>2926996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>2926996</v>
+        <v>551116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>551116</v>
+        <v>154355</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>154355</v>
+        <v>901555</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>901555</v>
+        <v>3370059</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>3370059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
         <v>583330</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E8FA6A-3080-4C4F-86D4-ACB2917C66D5}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
